--- a/data/trans_dic/P78C10_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C10_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>71,06%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>82,34%</t>
+          <t>81,35%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,23; 84,77</t>
+          <t>50,64; 83,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,24; 94,27</t>
+          <t>80,53; 94,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,63; 88,69</t>
+          <t>72,13; 87,87</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,97%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>80,32%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,6; 92,9</t>
+          <t>72,02; 91,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,89; 87,86</t>
+          <t>55,91; 85,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,06; 88,69</t>
+          <t>70,22; 87,39</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>82,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>82,01%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,79; 89,56</t>
+          <t>72,44; 88,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,43; 90,07</t>
+          <t>70,82; 88,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,47; 88,0</t>
+          <t>74,41; 86,36</t>
         </is>
       </c>
     </row>
